--- a/suggestion_list.xlsx
+++ b/suggestion_list.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>yup</t>
+  </si>
+  <si>
+    <t>We should make poeple have fun</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -496,6 +499,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D6" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/suggestion_list.xlsx
+++ b/suggestion_list.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/SC2002-CAMS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/SC2002-CAMSV2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{E5A21032-4AA7-4669-B59C-E86C3DA62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF9F5059-4688-42A0-87D9-F6AD2DFCE5BF}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{E5A21032-4AA7-4669-B59C-E86C3DA62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1CCE894-AE1B-4EEA-AC10-3319A3D366F9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
@@ -54,28 +54,12 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>zxczbc</t>
-  </si>
-  <si>
-    <t>iop</t>
-  </si>
-  <si>
-    <t>qwerty</t>
-  </si>
-  <si>
-    <t>yup</t>
-  </si>
-  <si>
-    <t>We should make poeple have fun</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,18 +389,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="30.54296875"/>
-    <col min="3" max="3" customWidth="true" width="36.6328125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.453125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.6328125"/>
+    <col min="1" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="36.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -437,86 +421,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D2" t="b" s="0">
-        <v>0</v>
-      </c>
-      <c r="E2" s="0">
-        <v>9</v>
-      </c>
-      <c r="F2" s="0">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="0">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D3" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0">
-        <v>9</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="0">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D5" t="b" s="0">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0">
-        <v>9</v>
-      </c>
-      <c r="F5" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D6" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/suggestion_list.xlsx
+++ b/suggestion_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/SC2002-CAMSV2/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -54,12 +54,22 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Provide water for camp</t>
+  </si>
+  <si>
+    <t>provide more water for camp</t>
+  </si>
+  <si>
+    <t>provide more water</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD6"/>
@@ -397,10 +407,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="30.54296875"/>
+    <col min="3" max="3" customWidth="true" width="36.6328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.453125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -421,6 +431,26 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D2" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
